--- a/Project_Files/TestSuite/Test Suite.xlsx
+++ b/Project_Files/TestSuite/Test Suite.xlsx
@@ -184,12 +184,674 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E17">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Input invalid inputs on City Crew fields
+8. Click the "Summit" button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E18">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Input invalid inputs on City Crew fields
+8. Click the "Summit" button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E19">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Input invalid inputs on City Crew fields
+8. Click the "Summit" button
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E20">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E21">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E22">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E23">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident
+8. Click GPS Coordinates field
+9. Change GPS Coordinates</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E24">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident
+8. Click GPS Coordinates field
+9. Change GPS Coordinates
+10. Click "Summit" button
+11. Select same incident</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E25">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E26">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E27">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E28">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select and incident
+8. Click the "Browse Image(s)" button
+9. Select an image
+10. Click the Upload button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E29">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select and incident
+8. Click the "Browse Image(s)" button
+9. Select multiple images
+10. Click the Upload button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F29">
+      <text>
+        <t xml:space="preserve">Maybe we should have a button to cancel uploading images</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E30">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select and incident
+8. Click the "Browse Image(s)" button
+9. Select multiple images
+10. Click the Upload button &gt; Cancel button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E31">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an incident
+8. Complete Graffiti information fields
+9. Complete Suspect Information fields
+10. Click the Submit button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E32">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an incident
+8. Complete Graffiti information fields
+9. Complete Suspect Information fields
+10. Click on "Browse Image(s)" button
+11. Select images
+12. Click the Upload button
+13. Click the Submit button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E47">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Complete City Crew fields
+8. Complete Graffiti Information fields
+9. Click the Submit button
+10. Click Sign Out
+11. Click on User Name Field
+12. Enter Law Enforcement User Name
+13. Click on Password field
+14. Enter Password
+15. Click on "Log In" button&gt; "Information" button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E48">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Complete City Crew fields
+8. Complete Graffiti Information fields
+9. Click the Submit button
+10. Click Sign Out
+11. Click on User Name Field
+12. Enter Law Enforcement User Name
+13. Click on Password field
+14. Enter Password
+15. Click on "Log In" button&gt; "Information" button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E55">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E56">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on the User Name Field
+3. Enter random User Name
+4. Click on Password field
+5. Enter Random Password
+6. Click on "Log In" button </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E57">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on the User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button
+ </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E58">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on the User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button
+ </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E59">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on the User Name Field
+3. Enter valid User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; Information button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E60">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on the User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E61">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on the User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button&gt; Scale of cleanup effort field</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E62">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on the User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E63">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button &gt; "Browse Image(s)" button
+7. Select an image
+8. Click the Upload button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E64">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button &gt; "Browse Image(s)" button
+7. Select multiple images
+8. Click the Upload button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F64">
+      <text>
+        <t xml:space="preserve">Maybe we should have a button to cancel uploading images</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E65">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Complete City Crew fields
+8. Complete Graffiti Information fields
+9. Click on "Browse Image(s)" button
+10. Select images
+11. Click the Upload button
+12. Click the Cancel button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E66">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Complete City Crew fields
+8. Complete Graffiti Information fields
+9. Click the Submit button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E67">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Complete City Crew fields
+8. Complete Graffiti Information fields
+9. Click on "Browse Image(s)" button
+10. Select images
+11. Click the Upload button
+12. Click the Submit button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E68">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Complete City Crew fields
+8. Complete Graffiti Information fields
+9. Click on "Browse Image(s)" button
+10. Select images
+11. Click the Upload button
+12. Click the Submit button
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E69">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Input invalid inputs on City Crew fields
+8. Click the "Summit" button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E70">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Input invalid inputs on City Crew fields
+8. Click the "Summit" button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E71">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Input invalid inputs on City Crew fields
+8. Click the "Summit" button
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E72">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E73">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E74">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E75">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident
+8. Click GPS Coordinates field
+9. Change GPS Coordinates</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E76">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident
+8. Click GPS Coordinates field
+9. Change GPS Coordinates
+10. Click "Summit" button
+11. Select same incident</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E77">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E78">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E79">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an Incident.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E80">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select and incident
+8. Click the "Browse Image(s)" button
+9. Select an image
+10. Click the Upload button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E81">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select and incident
+8. Click the "Browse Image(s)" button
+9. Select multiple images
+10. Click the Upload button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F81">
+      <text>
+        <t xml:space="preserve">Maybe we should have a button to cancel uploading images</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E82">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select and incident
+8. Click the "Browse Image(s)" button
+9. Select multiple images
+10. Click the Upload button &gt; Cancel button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E83">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an incident
+8. Complete Graffiti information fields
+9. Complete Suspect Information fields
+10. Click the Submit button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E84">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter Law Enforcement User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button
+7. Select an incident
+8. Complete Graffiti information fields
+9. Complete Suspect Information fields
+10. Click on "Browse Image(s)" button
+11. Select images
+12. Click the Upload button
+13. Click the Submit button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E98">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Complete City Crew fields
+8. Complete Graffiti Information fields
+9. Click the Submit button
+10. Click Sign Out
+11. Click on User Name Field
+12. Enter Law Enforcement User Name
+13. Click on Password field
+14. Enter Password
+15. Click on "Log In" button&gt; "Information" button</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E99">
+      <text>
+        <t xml:space="preserve">1. Go to GITS website
+2. Click on User Name Field
+3. Enter City Crew User Name
+4. Click on Password field
+5. Enter Password
+6. Click on "Log In" button&gt; "Information" button&gt; "Add Information+" button 
+7. Complete City Crew fields
+8. Complete Graffiti Information fields
+9. Click the Submit button
+10. Click Sign Out
+11. Click on User Name Field
+12. Enter Law Enforcement User Name
+13. Click on Password field
+14. Enter Password
+15. Click on "Log In" button&gt; "Information" button</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="116">
   <si>
     <t>Test Suite</t>
   </si>
@@ -212,13 +874,16 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Unit Test</t>
+    <t>ONLINE</t>
   </si>
   <si>
     <t>Verify GITS webpage loads properly.</t>
   </si>
   <si>
     <t>GITS webpage loads properly without any issues.</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>Verify user without City Crew or Law Enfocement credentials cannot log in.</t>
@@ -308,12 +973,331 @@
   <si>
     <t>Verify user was taken to Incident View within 5 seconds</t>
   </si>
+  <si>
+    <t>CCIE - Verify Error message appears if the user inputs are inconsistent with the requirements.</t>
+  </si>
+  <si>
+    <t>Error message appears.</t>
+  </si>
+  <si>
+    <t>CCIE - Verify Error message indicates reason for rejection.</t>
+  </si>
+  <si>
+    <t>Error message includes reason for rejection.</t>
+  </si>
+  <si>
+    <t>CCIE - Verify Error message indicates minimum requirements needed for the entry to be valid.</t>
+  </si>
+  <si>
+    <t>Error message includes minimum requirements needed.</t>
+  </si>
+  <si>
+    <t>LEGI - Verfiy correct fields appear when the user views the Incident Record information.</t>
+  </si>
+  <si>
+    <t>Correct fields appear and information appears without any issues.
+• Incident Record information (display only)
+o Record ID
+o Date created</t>
+  </si>
+  <si>
+    <t>LEGI - Verfiy correct fields appear when the user views the Crew Information.</t>
+  </si>
+  <si>
+    <t>Correct fields appear and information appears without any issues.
+• Crew information (display only)
+o Crew ID
+o Supervisor Name
+o Date on site
+o Scale of cleanup effort--select from pre-defined list</t>
+  </si>
+  <si>
+    <t>LEGI - Verfiy correct fields appear when the user views the Graffiti Information.</t>
+  </si>
+  <si>
+    <t>Correct fields appear and information appears without any issues.
+• Graffiti information (can edit)
+o Type of building or structure
+o Street Address of building or property
+o Nearest Cross Streets
+o GPS Coordinates--required
+o Moniker
+o Number of images submitted</t>
+  </si>
+  <si>
+    <t>LEGI - Verify user can edit Graffiti Information.</t>
+  </si>
+  <si>
+    <t>Graffiti information can be editted.</t>
+  </si>
+  <si>
+    <t>LEGI - Verify user can edit and upload Graffiti Information.</t>
+  </si>
+  <si>
+    <t>Graffiti information changed and uploaded correctly.</t>
+  </si>
+  <si>
+    <t>LEGI - Verify additional fields appear for Graffiti Information.</t>
+  </si>
+  <si>
+    <t>Correct fields appear and information appears without any issues.
+• Graffiti information
+o Specific type of build or structure--select from pre-defined list
+o Moniker
+o Amount of damage
+o Status of investigation: new, in process, in litigation, resolved</t>
+  </si>
+  <si>
+    <t>LEGI - Verify additional fields appear for Suspect Information.</t>
+  </si>
+  <si>
+    <t>Correct fields appear and information appears without any issues.
+• Suspect information
+o Suspect name(s)
+o Suspect image
+o Gang or crew name
+o Status: unknown, identified, in custody, released</t>
+  </si>
+  <si>
+    <t>LEGI - Verify additional field appears to add label to image.</t>
+  </si>
+  <si>
+    <t>Field to add label to image appears.</t>
+  </si>
+  <si>
+    <t>LEGI - Verify user can browse an image from device and upload it to an incident.</t>
+  </si>
+  <si>
+    <t>LEGI - Verify user can upload multiple images to an incident.</t>
+  </si>
+  <si>
+    <t>LEGI - Verify user can CANCEL documenting an incident.</t>
+  </si>
+  <si>
+    <t>Incident was not updated.</t>
+  </si>
+  <si>
+    <t>LEGI - Verify user can SUBMIT an incident without images.</t>
+  </si>
+  <si>
+    <t>Incident was updated.</t>
+  </si>
+  <si>
+    <t>LEGI - Verify user can SUBMIT an incident with images.</t>
+  </si>
+  <si>
+    <t>Incident was updated with images.</t>
+  </si>
+  <si>
+    <t>GA - Verify Graffity Analisys subsystem can filter the frequency of incidents.</t>
+  </si>
+  <si>
+    <t>The Graffiti Analysis (GA) subsystem shall calculate the frequency of incidents by:
+a. range of dates
+b. range of GPS coordinates
+c. suspect name
+d. gang or crew name</t>
+  </si>
+  <si>
+    <t>GA - Verify if user omits an entry, it is the equivalent of selecting all.</t>
+  </si>
+  <si>
+    <t>The Graffiti Analysis (GA) subsystem shall calculate the frequency of incidents by:
+ a. range of dates 
+b. range of GPS coordinates 
+c. suspect name 
+d. gang or crew name 
+Omitting an entry is equivalent to selecting "All."</t>
+  </si>
+  <si>
+    <t>GA - Verify GA system calculates "hot spots" correctly.</t>
+  </si>
+  <si>
+    <t>The GA subsystem shall calculate "hot spots" by:
+a. allow entry of a frequency threshold in days--default is 7.0
+b. allow entry of a GPS coordinate--default is Central City Town Hall
+c. allow entry of a range in miles--default is 0.5
+d. hot spot = (range / frequency threshold)</t>
+  </si>
+  <si>
+    <t>GA - Verify defaults values are set up correctly to calculate "hot spots."</t>
+  </si>
+  <si>
+    <t>The GA subsystem shall calculate "hot spots" by:
+a. allow entry of a frequency threshold in days--default is 7.0
+b. allow entry of a GPS coordinate--default is Central City Town Hall
+c. allow entry of a range in miles--default is 0.5</t>
+  </si>
+  <si>
+    <t>GA - Verify user can select any incident record with GPS coordinates in the given range as a hot spot.</t>
+  </si>
+  <si>
+    <t>The GA subsystem shall report "hot spots" by:
+a. selecting any IR with GPS coordinates in the given range as a hot spot</t>
+  </si>
+  <si>
+    <t>GA - Verify GA system reports and displays "hot spots" correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The GA subsystem shall report "hot spots" by:
+a. selecting any IR with GPS coordinates in the given range as a hot spot
+b. displaying resulting incident records involved </t>
+  </si>
+  <si>
+    <t>36, 37, 38</t>
+  </si>
+  <si>
+    <t>GR - Verify menu for Graffiti Reporting system displays correctly.</t>
+  </si>
+  <si>
+    <t>The Graffiti Reporting (GR) subsystem shall display a menu of reporting options:
+a. Map of incidents
+b. Records of incidents sorted by selection of one or more:
+c. Status Report</t>
+  </si>
+  <si>
+    <t>GR - Verify map displays correctly in Map of Incidents View.</t>
+  </si>
+  <si>
+    <t>Map appears correctly with no issues</t>
+  </si>
+  <si>
+    <t>GR - Verify user can sort the Record of Incidents View.</t>
+  </si>
+  <si>
+    <t>Records of incidents sorted by selection of one or more:
+§ City Works crew
+§ City Works supervisor
+§ Date of site clean up
+§ Law Enforcement official
+§ Suspect name
+§ Image label
+§ IR date
+§ Reporting area
+§ Hot spot
+§ GPS coordinates</t>
+  </si>
+  <si>
+    <t>GR - Verify user can sort the Record of Incidents View with multiple filters.</t>
+  </si>
+  <si>
+    <t>Record of Incidents View is sorted correctly.</t>
+  </si>
+  <si>
+    <t>GR - Verify Status Report View content appears without any issues</t>
+  </si>
+  <si>
+    <t>Status Report containing:
+§ Title
+§ Department
+§ Date
+§ Total number of incidents
+§ Total number of investigating law enforcement officials
+§ TOTALS
+1. Number of new incidents since last status report
+2. Number of incidents with no known suspect
+3. Number of incidents with identified suspect(s)
+4. Number of incidents with suspects in custody
+5. Number of incidents with released suspect(s)
+6. Number of incidents resolved
+§ PER OFFICIAL
+1. Number of new incidents since last status report
+2. Number of incidents with no known suspect
+3. Number of incidents with identified suspect(s)
+4. Number of incidents with suspects in custody
+5. Number of incidents with released suspect(s)
+6. Number of incidents resolved</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>Verify UI provides multiple, movable, and sizeable windows.</t>
+  </si>
+  <si>
+    <t>GITS shall utilize a full graphical user interface that provides multiple, moveable, and sizeable windows.</t>
+  </si>
+  <si>
+    <t>Verify GITS can support multiple users in web environment.</t>
+  </si>
+  <si>
+    <t>GITS shall be designed to support multiple users in web environment. The initial version may be a single user version, but any embedded database applications must be able to migrate to multiuser/ shared environment accessible over a network.</t>
+  </si>
+  <si>
+    <t>Verify GITS information is stored after its first documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All information maintained by GITS shall be entered only once. </t>
+  </si>
+  <si>
+    <t>Verify GITS information is available after its first documentation.</t>
+  </si>
+  <si>
+    <t>When information has been entered, it shall be available for use in subsequent GITS transactions. (For example, once an incident of graffiti has been entered, it is available to all other relevant GITS functions associated with that case: case information, reporting, analysis, etc.)</t>
+  </si>
+  <si>
+    <t>Verify inputs are validated upon entry.</t>
+  </si>
+  <si>
+    <t>Information entered into GITS shall be validated on entry, and identified errors shall be
+resolved before additional information can be entered. The system criteria necessary to perform this validation shall
+be controlled by a combination of user-defined and user-maintained parameters.</t>
+  </si>
+  <si>
+    <t>Verify list of authorized characters for each field is provided to the user.</t>
+  </si>
+  <si>
+    <t>A list of possible values for each field of entry will be provided to the user.</t>
+  </si>
+  <si>
+    <t>Verify list of values can be modified by authorized system user.</t>
+  </si>
+  <si>
+    <t>The system criteria necessary to perform this validation shall be controlled by a combination of user-defined and user-maintained parameters. A list of possible values for each
+field of entry will be provided to the user. These values can be modified by authorized system users.</t>
+  </si>
+  <si>
+    <t>Verify GITS accepts hyphanated names.</t>
+  </si>
+  <si>
+    <t>GITS shall accept and correctly process hyphenated names in any name
+component, first, middle, and/or last.</t>
+  </si>
+  <si>
+    <t>Verify user can search for names using standard wild card characters.</t>
+  </si>
+  <si>
+    <t>GITS shall also allow name searches using the standard wild card characters.</t>
+  </si>
+  <si>
+    <t>Verify user can use ONLINE HELP feature</t>
+  </si>
+  <si>
+    <t>To assist personnel in learning to use GITS, and to help them solve problems encountered while using the system, GITS shall incorporate an on-line help function. To facilitate access by the GITS end-user, the on-line help function shall be context sensitive. It shall also be sufficiently detailed to provide answers to most of the questions asked by GITS end-users. The help facility will include overall system functions, transaction descriptions, screen descriptions, and data fields. Users will have the ability to update the help screens under security control provided by the system.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>OFFLINE</t>
+  </si>
+  <si>
+    <t>GITS shall allow a user to ask for and obtain help for each entry or inquiry module or screen, while the user is in that module or screen. The "help" system shall provide essential information for the module or screens purpose and usage.</t>
+  </si>
+  <si>
+    <t>GITS shall allow the user to ask for and obtain "help" for each individual field, while the cursor is in that field, for each entry and inquiry screen. The "help" function shall give the user a brief explanation of the field requirement(s) for that particular field, including whether the field is mandatory (i.e., data MUST be entered in the particular field, if applicable).</t>
+  </si>
+  <si>
+    <t>The system criteria necessary to perform this validation shall
+be controlled by a combination of user-defined and user-maintained parameters. A list of possible values for each
+field of entry will be provided to the user. These values can be modified by authorized system users.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -321,11 +1305,14 @@
     </font>
     <font/>
     <font>
+      <b/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +1321,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -350,18 +1349,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,33 +1393,38 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="19.57"/>
-    <col customWidth="1" min="4" max="4" width="72.57"/>
-    <col customWidth="1" min="5" max="5" width="23.43"/>
-    <col customWidth="1" min="6" max="6" width="58.57"/>
-    <col customWidth="1" min="7" max="7" width="29.14"/>
+    <col customWidth="1" min="1" max="1" width="10.14"/>
+    <col customWidth="1" min="2" max="2" width="12.43"/>
+    <col customWidth="1" min="3" max="3" width="15.14"/>
+    <col customWidth="1" min="4" max="4" width="78.71"/>
+    <col customWidth="1" min="5" max="5" width="7.86"/>
+    <col customWidth="1" min="6" max="6" width="82.29"/>
+    <col customWidth="1" min="7" max="7" width="7.57"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="G1" s="1"/>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -429,6 +1445,9 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1">
@@ -438,10 +1457,13 @@
         <v>3.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -452,10 +1474,13 @@
         <v>3.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -466,10 +1491,13 @@
         <v>3.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -480,10 +1508,13 @@
         <v>3.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -494,10 +1525,13 @@
         <v>22.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -507,11 +1541,14 @@
       <c r="C9" s="1">
         <v>22.0</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -522,10 +1559,13 @@
         <v>23.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -536,10 +1576,13 @@
         <v>24.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -550,10 +1593,13 @@
         <v>24.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -564,10 +1610,13 @@
         <v>25.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -578,10 +1627,13 @@
         <v>25.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +1644,13 @@
         <v>25.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -606,68 +1661,1507 @@
         <v>1.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1">
         <v>15.0</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
+      <c r="C17" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1">
         <v>16.0</v>
       </c>
+      <c r="C18" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="1">
         <v>17.0</v>
       </c>
+      <c r="C19" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="1">
         <v>18.0</v>
       </c>
+      <c r="C20" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="1">
         <v>19.0</v>
       </c>
+      <c r="C21" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="1">
         <v>20.0</v>
       </c>
+      <c r="C22" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="1">
         <v>21.0</v>
       </c>
+      <c r="C23" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="1">
         <v>22.0</v>
       </c>
+      <c r="C24" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="1">
         <v>23.0</v>
       </c>
+      <c r="C25" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="1">
         <v>24.0</v>
       </c>
+      <c r="C26" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="1">
         <v>25.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="B53" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
